--- a/Code/Results/Cases/Case_2_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_130/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010256244531548</v>
+        <v>1.064450892247345</v>
       </c>
       <c r="D2">
-        <v>1.028390004054444</v>
+        <v>1.065609612849498</v>
       </c>
       <c r="E2">
-        <v>1.022947911106441</v>
+        <v>1.067193751013686</v>
       </c>
       <c r="F2">
-        <v>1.032220448466662</v>
+        <v>1.077325582023301</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045574346765035</v>
+        <v>1.042971575057575</v>
       </c>
       <c r="J2">
-        <v>1.03213446146104</v>
+        <v>1.069411067594375</v>
       </c>
       <c r="K2">
-        <v>1.039467497511822</v>
+        <v>1.068322391128056</v>
       </c>
       <c r="L2">
-        <v>1.034096540890517</v>
+        <v>1.069902269760689</v>
       </c>
       <c r="M2">
-        <v>1.043248434805118</v>
+        <v>1.08000717781526</v>
       </c>
       <c r="N2">
-        <v>1.033600210783793</v>
+        <v>1.070929753973523</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01926472625463</v>
+        <v>1.066195067267269</v>
       </c>
       <c r="D3">
-        <v>1.035388140650784</v>
+        <v>1.066972285970766</v>
       </c>
       <c r="E3">
-        <v>1.029864620732847</v>
+        <v>1.068606784435461</v>
       </c>
       <c r="F3">
-        <v>1.039786979035137</v>
+        <v>1.078850171154463</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048124987371322</v>
+        <v>1.04336489812504</v>
       </c>
       <c r="J3">
-        <v>1.039243645558483</v>
+        <v>1.070806695590494</v>
       </c>
       <c r="K3">
-        <v>1.045587393404687</v>
+        <v>1.069499129451866</v>
       </c>
       <c r="L3">
-        <v>1.040129122485314</v>
+        <v>1.071129554312495</v>
       </c>
       <c r="M3">
-        <v>1.049934881650407</v>
+        <v>1.081347714112699</v>
       </c>
       <c r="N3">
-        <v>1.040719490738088</v>
+        <v>1.072327363921477</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024895669741468</v>
+        <v>1.067321291634983</v>
       </c>
       <c r="D4">
-        <v>1.039765677522611</v>
+        <v>1.067851767729811</v>
       </c>
       <c r="E4">
-        <v>1.034203038498569</v>
+        <v>1.069519809211658</v>
       </c>
       <c r="F4">
-        <v>1.044527719889801</v>
+        <v>1.079835006252076</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049705770477352</v>
+        <v>1.043617024183455</v>
       </c>
       <c r="J4">
-        <v>1.043683291081818</v>
+        <v>1.071707062227843</v>
       </c>
       <c r="K4">
-        <v>1.049406733767556</v>
+        <v>1.070257764311699</v>
       </c>
       <c r="L4">
-        <v>1.043905470426842</v>
+        <v>1.071921860106372</v>
       </c>
       <c r="M4">
-        <v>1.054116871064959</v>
+        <v>1.082212947302763</v>
       </c>
       <c r="N4">
-        <v>1.045165441067301</v>
+        <v>1.073229009182725</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027218553478025</v>
+        <v>1.067794200988787</v>
       </c>
       <c r="D5">
-        <v>1.041572109250713</v>
+        <v>1.068220970019979</v>
       </c>
       <c r="E5">
-        <v>1.035996091570432</v>
+        <v>1.069903341186758</v>
       </c>
       <c r="F5">
-        <v>1.046485853184365</v>
+        <v>1.080248639135252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050354536593376</v>
+        <v>1.043722451393512</v>
       </c>
       <c r="J5">
-        <v>1.045513660082259</v>
+        <v>1.072084940515972</v>
       </c>
       <c r="K5">
-        <v>1.050980719326609</v>
+        <v>1.070576033987635</v>
       </c>
       <c r="L5">
-        <v>1.045464441260186</v>
+        <v>1.072254515096612</v>
       </c>
       <c r="M5">
-        <v>1.055842464319847</v>
+        <v>1.082576177382631</v>
       </c>
       <c r="N5">
-        <v>1.046998409401669</v>
+        <v>1.073607424101366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027606057978381</v>
+        <v>1.067873572354592</v>
       </c>
       <c r="D6">
-        <v>1.041873490076697</v>
+        <v>1.068282929779945</v>
       </c>
       <c r="E6">
-        <v>1.03629540102254</v>
+        <v>1.069967720322726</v>
       </c>
       <c r="F6">
-        <v>1.04681265033146</v>
+        <v>1.080318067214764</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050462565047624</v>
+        <v>1.043740119955221</v>
       </c>
       <c r="J6">
-        <v>1.045818936964628</v>
+        <v>1.072148350947791</v>
       </c>
       <c r="K6">
-        <v>1.051243196254959</v>
+        <v>1.070629434380879</v>
       </c>
       <c r="L6">
-        <v>1.04572457185533</v>
+        <v>1.07231034431584</v>
       </c>
       <c r="M6">
-        <v>1.056130349624596</v>
+        <v>1.08263713542625</v>
       </c>
       <c r="N6">
-        <v>1.047304119812226</v>
+        <v>1.073670924583271</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024926878716777</v>
+        <v>1.067327612837435</v>
       </c>
       <c r="D7">
-        <v>1.039789945545875</v>
+        <v>1.067856703106252</v>
       </c>
       <c r="E7">
-        <v>1.034227115928685</v>
+        <v>1.069524935166446</v>
       </c>
       <c r="F7">
-        <v>1.044554018708161</v>
+        <v>1.079840534761261</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049714500285694</v>
+        <v>1.043618435128738</v>
       </c>
       <c r="J7">
-        <v>1.043707887297175</v>
+        <v>1.071712113940551</v>
       </c>
       <c r="K7">
-        <v>1.049427887355845</v>
+        <v>1.070262019630093</v>
       </c>
       <c r="L7">
-        <v>1.043926411582046</v>
+        <v>1.071926306739113</v>
       </c>
       <c r="M7">
-        <v>1.05414005366265</v>
+        <v>1.082217802808187</v>
       </c>
       <c r="N7">
-        <v>1.045190072212105</v>
+        <v>1.073234068069445</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013343680582752</v>
+        <v>1.065040843572682</v>
       </c>
       <c r="D8">
-        <v>1.030787659945837</v>
+        <v>1.066070607724848</v>
       </c>
       <c r="E8">
-        <v>1.025315122417571</v>
+        <v>1.067671566849686</v>
       </c>
       <c r="F8">
-        <v>1.0348112132774</v>
+        <v>1.077841176797838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046451327320143</v>
+        <v>1.043104995248059</v>
       </c>
       <c r="J8">
-        <v>1.034571766856678</v>
+        <v>1.069883291326747</v>
       </c>
       <c r="K8">
-        <v>1.041566136920565</v>
+        <v>1.068720658820417</v>
       </c>
       <c r="L8">
-        <v>1.036162764234572</v>
+        <v>1.070317419692332</v>
       </c>
       <c r="M8">
-        <v>1.045539419835665</v>
+        <v>1.08046067572365</v>
       </c>
       <c r="N8">
-        <v>1.036040977432655</v>
+        <v>1.07140264831776</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9912583504034586</v>
+        <v>1.060992507369162</v>
       </c>
       <c r="D9">
-        <v>1.013658319666434</v>
+        <v>1.062905576518285</v>
       </c>
       <c r="E9">
-        <v>1.008458287631381</v>
+        <v>1.064395354024431</v>
       </c>
       <c r="F9">
-        <v>1.016336456238314</v>
+        <v>1.074304790687384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040123028904473</v>
+        <v>1.042181871641638</v>
       </c>
       <c r="J9">
-        <v>1.017123620776506</v>
+        <v>1.066639555643625</v>
       </c>
       <c r="K9">
-        <v>1.026533619790358</v>
+        <v>1.065982812553314</v>
       </c>
       <c r="L9">
-        <v>1.021415609571511</v>
+        <v>1.067468002295828</v>
       </c>
       <c r="M9">
-        <v>1.029169931765494</v>
+        <v>1.07734727592436</v>
       </c>
       <c r="N9">
-        <v>1.018568052983718</v>
+        <v>1.068154306157905</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9751543586104379</v>
+        <v>1.058280193879214</v>
       </c>
       <c r="D10">
-        <v>1.001206499833686</v>
+        <v>1.060783086896929</v>
       </c>
       <c r="E10">
-        <v>0.9962801835841859</v>
+        <v>1.062203743600619</v>
       </c>
       <c r="F10">
-        <v>1.002951855060474</v>
+        <v>1.071937685017994</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035443051273576</v>
+        <v>1.041553893112529</v>
       </c>
       <c r="J10">
-        <v>1.004389637659419</v>
+        <v>1.064462230889153</v>
       </c>
       <c r="K10">
-        <v>1.015554004668558</v>
+        <v>1.0641424141411</v>
       </c>
       <c r="L10">
-        <v>1.010716926842859</v>
+        <v>1.065558259577978</v>
       </c>
       <c r="M10">
-        <v>1.017268016604027</v>
+        <v>1.075259612064182</v>
       </c>
       <c r="N10">
-        <v>1.005815986149998</v>
+        <v>1.06597388935254</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.967783700778431</v>
+        <v>1.057102367009304</v>
       </c>
       <c r="D11">
-        <v>0.9955204379667488</v>
+        <v>1.059860941042275</v>
       </c>
       <c r="E11">
-        <v>0.9907389627233907</v>
+        <v>1.061252865000406</v>
       </c>
       <c r="F11">
-        <v>0.996851101910922</v>
+        <v>1.070910311246571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033287431355974</v>
+        <v>1.041278945126352</v>
       </c>
       <c r="J11">
-        <v>0.9985609664158279</v>
+        <v>1.063515764156348</v>
       </c>
       <c r="K11">
-        <v>1.010527329609858</v>
+        <v>1.063341785026334</v>
       </c>
       <c r="L11">
-        <v>1.005837667769488</v>
+        <v>1.064728809053839</v>
       </c>
       <c r="M11">
-        <v>1.011832647164387</v>
+        <v>1.074352644697872</v>
       </c>
       <c r="N11">
-        <v>0.9999790375246821</v>
+        <v>1.065026078528413</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9649789681300202</v>
+        <v>1.056664346553844</v>
       </c>
       <c r="D12">
-        <v>0.9933590884126554</v>
+        <v>1.059517939158198</v>
       </c>
       <c r="E12">
-        <v>0.9886358425188245</v>
+        <v>1.060899371322379</v>
       </c>
       <c r="F12">
-        <v>0.9945338669466626</v>
+        <v>1.070528326458195</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032465307207598</v>
+        <v>1.041176358021405</v>
       </c>
       <c r="J12">
-        <v>0.9963431628839394</v>
+        <v>1.063163640400915</v>
       </c>
       <c r="K12">
-        <v>1.008614633420875</v>
+        <v>1.063043825836257</v>
       </c>
       <c r="L12">
-        <v>1.003984049171719</v>
+        <v>1.064420326315111</v>
       </c>
       <c r="M12">
-        <v>1.009766544091844</v>
+        <v>1.074015295832093</v>
       </c>
       <c r="N12">
-        <v>0.9977580844573929</v>
+        <v>1.064673454716858</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9655837517092776</v>
+        <v>1.056758327354516</v>
       </c>
       <c r="D13">
-        <v>0.9938250266589574</v>
+        <v>1.059591535938607</v>
       </c>
       <c r="E13">
-        <v>0.989089081314018</v>
+        <v>1.060975210429396</v>
       </c>
       <c r="F13">
-        <v>0.9950333309458398</v>
+        <v>1.070610280533237</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032642661693007</v>
+        <v>1.041198384148644</v>
       </c>
       <c r="J13">
-        <v>0.9968213757985872</v>
+        <v>1.063239197858178</v>
       </c>
       <c r="K13">
-        <v>1.009027058214626</v>
+        <v>1.063107765049659</v>
       </c>
       <c r="L13">
-        <v>1.004383597940718</v>
+        <v>1.064486514613916</v>
       </c>
       <c r="M13">
-        <v>1.010211951053222</v>
+        <v>1.074087679336138</v>
       </c>
       <c r="N13">
-        <v>0.998236976489231</v>
+        <v>1.064749119474378</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9675532725163746</v>
+        <v>1.057066170864684</v>
       </c>
       <c r="D14">
-        <v>0.9953428180844983</v>
+        <v>1.059832598171117</v>
       </c>
       <c r="E14">
-        <v>0.9905660626716256</v>
+        <v>1.061223651179703</v>
       </c>
       <c r="F14">
-        <v>0.9966606356927106</v>
+        <v>1.070878743929957</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033219924435483</v>
+        <v>1.041270474635207</v>
       </c>
       <c r="J14">
-        <v>0.9983787537462108</v>
+        <v>1.063486669071723</v>
       </c>
       <c r="K14">
-        <v>1.01037018467486</v>
+        <v>1.063317167312445</v>
       </c>
       <c r="L14">
-        <v>1.005685315159079</v>
+        <v>1.064703317741736</v>
       </c>
       <c r="M14">
-        <v>1.011662855444024</v>
+        <v>1.074324768798612</v>
       </c>
       <c r="N14">
-        <v>0.9997965660921743</v>
+        <v>1.064996942125431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9687576516693199</v>
+        <v>1.057255773620772</v>
       </c>
       <c r="D15">
-        <v>0.9962712814700514</v>
+        <v>1.059981061180941</v>
       </c>
       <c r="E15">
-        <v>0.9914699842763148</v>
+        <v>1.061376684329006</v>
       </c>
       <c r="F15">
-        <v>0.9976563211839127</v>
+        <v>1.071044103388688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03357268887529</v>
+        <v>1.041314830994321</v>
       </c>
       <c r="J15">
-        <v>0.999331132520635</v>
+        <v>1.063639069163215</v>
       </c>
       <c r="K15">
-        <v>1.011191539406761</v>
+        <v>1.063446111130969</v>
       </c>
       <c r="L15">
-        <v>1.006481743726854</v>
+        <v>1.064836845623619</v>
       </c>
       <c r="M15">
-        <v>1.012550397361303</v>
+        <v>1.074470786054958</v>
       </c>
       <c r="N15">
-        <v>1.000750297353697</v>
+        <v>1.065149558642533</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9756345608936668</v>
+        <v>1.058358289876718</v>
       </c>
       <c r="D16">
-        <v>1.001577249546447</v>
+        <v>1.060844220556871</v>
       </c>
       <c r="E16">
-        <v>0.9966419136902115</v>
+        <v>1.062266809462144</v>
       </c>
       <c r="F16">
-        <v>1.003349880293508</v>
+        <v>1.072005816845873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035583225981418</v>
+        <v>1.041572076336547</v>
       </c>
       <c r="J16">
-        <v>1.004769387933986</v>
+        <v>1.064524966376775</v>
       </c>
       <c r="K16">
-        <v>1.015881490342933</v>
+        <v>1.064195469909237</v>
       </c>
       <c r="L16">
-        <v>1.01103520838357</v>
+        <v>1.065613253599584</v>
       </c>
       <c r="M16">
-        <v>1.017622413129755</v>
+        <v>1.075319740476339</v>
       </c>
       <c r="N16">
-        <v>1.006196275713512</v>
+        <v>1.066036713931751</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9798371107234463</v>
+        <v>1.05904895396504</v>
       </c>
       <c r="D17">
-        <v>1.004823413123237</v>
+        <v>1.061384821561388</v>
       </c>
       <c r="E17">
-        <v>0.9998113527161209</v>
+        <v>1.062824646543345</v>
       </c>
       <c r="F17">
-        <v>1.00683612874732</v>
+        <v>1.072608423184706</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036808473886209</v>
+        <v>1.041732625685442</v>
       </c>
       <c r="J17">
-        <v>1.008092793975776</v>
+        <v>1.065079674829486</v>
       </c>
       <c r="K17">
-        <v>1.018747395704445</v>
+        <v>1.064664518470086</v>
       </c>
       <c r="L17">
-        <v>1.013822690411298</v>
+        <v>1.066099592721625</v>
       </c>
       <c r="M17">
-        <v>1.02072534823316</v>
+        <v>1.07585145766996</v>
       </c>
       <c r="N17">
-        <v>1.009524401373081</v>
+        <v>1.06659221013409</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9822505787780206</v>
+        <v>1.059451481858995</v>
       </c>
       <c r="D18">
-        <v>1.006688829040293</v>
+        <v>1.061699847222154</v>
       </c>
       <c r="E18">
-        <v>1.001634519594084</v>
+        <v>1.063149841143548</v>
       </c>
       <c r="F18">
-        <v>1.008840558100948</v>
+        <v>1.072959682359865</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037510831417287</v>
+        <v>1.04182597941495</v>
       </c>
       <c r="J18">
-        <v>1.0100013245003</v>
+        <v>1.065402873554296</v>
       </c>
       <c r="K18">
-        <v>1.020393094858186</v>
+        <v>1.064937747907478</v>
       </c>
       <c r="L18">
-        <v>1.01542509862103</v>
+        <v>1.066383023664041</v>
       </c>
       <c r="M18">
-        <v>1.022508417107896</v>
+        <v>1.076161311062353</v>
       </c>
       <c r="N18">
-        <v>1.011435642229861</v>
+        <v>1.066915867838161</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9830672959162202</v>
+        <v>1.059588678852857</v>
       </c>
       <c r="D19">
-        <v>1.007320276324553</v>
+        <v>1.061807212658503</v>
       </c>
       <c r="E19">
-        <v>1.002251972635449</v>
+        <v>1.063260693474224</v>
       </c>
       <c r="F19">
-        <v>1.009519238116731</v>
+        <v>1.073079413845694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037748285639401</v>
+        <v>1.041857761220637</v>
       </c>
       <c r="J19">
-        <v>1.010647155067163</v>
+        <v>1.065513016408773</v>
       </c>
       <c r="K19">
-        <v>1.020949965322016</v>
+        <v>1.065030851561845</v>
       </c>
       <c r="L19">
-        <v>1.015967611604844</v>
+        <v>1.066479625451228</v>
       </c>
       <c r="M19">
-        <v>1.023111982414619</v>
+        <v>1.076266914494938</v>
       </c>
       <c r="N19">
-        <v>1.012082389950207</v>
+        <v>1.067026167108124</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.97939017586314</v>
+        <v>1.05897488595224</v>
       </c>
       <c r="D20">
-        <v>1.004478062352982</v>
+        <v>1.061326851068207</v>
       </c>
       <c r="E20">
-        <v>0.9994739717144041</v>
+        <v>1.062764814835934</v>
       </c>
       <c r="F20">
-        <v>1.006465126611223</v>
+        <v>1.072543793195529</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036678303129973</v>
+        <v>1.041715430491112</v>
       </c>
       <c r="J20">
-        <v>1.007739359181028</v>
+        <v>1.065020196498351</v>
       </c>
       <c r="K20">
-        <v>1.01844262482295</v>
+        <v>1.064614231170318</v>
       </c>
       <c r="L20">
-        <v>1.013526077006099</v>
+        <v>1.066047438280973</v>
       </c>
       <c r="M20">
-        <v>1.020395239255642</v>
+        <v>1.075794439340529</v>
       </c>
       <c r="N20">
-        <v>1.009170464660385</v>
+        <v>1.066532647336903</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9669752099135782</v>
+        <v>1.056975533191273</v>
       </c>
       <c r="D21">
-        <v>0.9948972720933562</v>
+        <v>1.05976162457713</v>
       </c>
       <c r="E21">
-        <v>0.9901324076901036</v>
+        <v>1.061150499796414</v>
       </c>
       <c r="F21">
-        <v>0.9961828938581997</v>
+        <v>1.070799698525772</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033050544526845</v>
+        <v>1.041249258492403</v>
       </c>
       <c r="J21">
-        <v>0.9979216503630768</v>
+        <v>1.063413810633013</v>
       </c>
       <c r="K21">
-        <v>1.00997596640365</v>
+        <v>1.063255519380495</v>
       </c>
       <c r="L21">
-        <v>1.005303167563788</v>
+        <v>1.064639485407562</v>
       </c>
       <c r="M21">
-        <v>1.011236945145118</v>
+        <v>1.074254964669066</v>
       </c>
       <c r="N21">
-        <v>0.9993388135698056</v>
+        <v>1.06492398021938</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.958777568375478</v>
+        <v>1.055715426282019</v>
       </c>
       <c r="D22">
-        <v>0.9885850751319231</v>
+        <v>1.058774745855024</v>
       </c>
       <c r="E22">
-        <v>0.9839965542494478</v>
+        <v>1.06013380386431</v>
       </c>
       <c r="F22">
-        <v>0.9894188249241764</v>
+        <v>1.069700956389086</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030644366704249</v>
+        <v>1.040953498919124</v>
       </c>
       <c r="J22">
-        <v>0.9914400773141915</v>
+        <v>1.062400543482374</v>
       </c>
       <c r="K22">
-        <v>1.004386107005072</v>
+        <v>1.06239794095418</v>
       </c>
       <c r="L22">
-        <v>0.9998918515396904</v>
+        <v>1.063752000666962</v>
       </c>
       <c r="M22">
-        <v>1.005202852177658</v>
+        <v>1.073284364337086</v>
       </c>
       <c r="N22">
-        <v>0.992848035943744</v>
+        <v>1.063909274113165</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9631631920148924</v>
+        <v>1.05638372571939</v>
       </c>
       <c r="D23">
-        <v>0.9919605535784761</v>
+        <v>1.059298174146649</v>
       </c>
       <c r="E23">
-        <v>0.9872759074322301</v>
+        <v>1.060672939273791</v>
       </c>
       <c r="F23">
-        <v>0.9930349634398823</v>
+        <v>1.070283629101694</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031932570748984</v>
+        <v>1.041110540058088</v>
       </c>
       <c r="J23">
-        <v>0.9949074404111987</v>
+        <v>1.062938009562259</v>
       </c>
       <c r="K23">
-        <v>1.007376425618587</v>
+        <v>1.062852876009774</v>
       </c>
       <c r="L23">
-        <v>1.002784950020065</v>
+        <v>1.064222689445336</v>
       </c>
       <c r="M23">
-        <v>1.008429629817923</v>
+        <v>1.073799154805199</v>
       </c>
       <c r="N23">
-        <v>0.996320323094061</v>
+        <v>1.064447503456531</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9795922427964513</v>
+        <v>1.059008355102472</v>
       </c>
       <c r="D24">
-        <v>1.004634197706627</v>
+        <v>1.061353046358861</v>
       </c>
       <c r="E24">
-        <v>0.9996264981722477</v>
+        <v>1.062791850772582</v>
       </c>
       <c r="F24">
-        <v>1.006632855860572</v>
+        <v>1.072572997419222</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036737159580405</v>
+        <v>1.041723201161519</v>
       </c>
       <c r="J24">
-        <v>1.007899153321044</v>
+        <v>1.065047073287721</v>
       </c>
       <c r="K24">
-        <v>1.018580417471366</v>
+        <v>1.064636954944716</v>
       </c>
       <c r="L24">
-        <v>1.013660176097507</v>
+        <v>1.066071005376934</v>
       </c>
       <c r="M24">
-        <v>1.020544483821611</v>
+        <v>1.075820204359991</v>
       </c>
       <c r="N24">
-        <v>1.009330485726408</v>
+        <v>1.066559562294397</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.997190365529691</v>
+        <v>1.062041405181099</v>
       </c>
       <c r="D25">
-        <v>1.018253814470564</v>
+        <v>1.06372596880147</v>
       </c>
       <c r="E25">
-        <v>1.01296842522864</v>
+        <v>1.065243611834851</v>
       </c>
       <c r="F25">
-        <v>1.021285396427752</v>
+        <v>1.075220664118294</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041834404038698</v>
+        <v>1.042422720175164</v>
       </c>
       <c r="J25">
-        <v>1.021812656461596</v>
+        <v>1.067480706663572</v>
       </c>
       <c r="K25">
-        <v>1.030575221186529</v>
+        <v>1.066693245680634</v>
       </c>
       <c r="L25">
-        <v>1.025368704309085</v>
+        <v>1.068206395119626</v>
       </c>
       <c r="M25">
-        <v>1.033562031576126</v>
+        <v>1.07815424972695</v>
       </c>
       <c r="N25">
-        <v>1.023263747637321</v>
+        <v>1.068996651708782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_130/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064450892247345</v>
+        <v>1.010256244531552</v>
       </c>
       <c r="D2">
-        <v>1.065609612849498</v>
+        <v>1.028390004054448</v>
       </c>
       <c r="E2">
-        <v>1.067193751013686</v>
+        <v>1.022947911106444</v>
       </c>
       <c r="F2">
-        <v>1.077325582023301</v>
+        <v>1.032220448466665</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042971575057575</v>
+        <v>1.045574346765037</v>
       </c>
       <c r="J2">
-        <v>1.069411067594375</v>
+        <v>1.032134461461044</v>
       </c>
       <c r="K2">
-        <v>1.068322391128056</v>
+        <v>1.039467497511825</v>
       </c>
       <c r="L2">
-        <v>1.069902269760689</v>
+        <v>1.03409654089052</v>
       </c>
       <c r="M2">
-        <v>1.08000717781526</v>
+        <v>1.043248434805121</v>
       </c>
       <c r="N2">
-        <v>1.070929753973523</v>
+        <v>1.033600210783797</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066195067267269</v>
+        <v>1.01926472625463</v>
       </c>
       <c r="D3">
-        <v>1.066972285970766</v>
+        <v>1.035388140650784</v>
       </c>
       <c r="E3">
-        <v>1.068606784435461</v>
+        <v>1.029864620732847</v>
       </c>
       <c r="F3">
-        <v>1.078850171154463</v>
+        <v>1.039786979035137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04336489812504</v>
+        <v>1.048124987371322</v>
       </c>
       <c r="J3">
-        <v>1.070806695590494</v>
+        <v>1.039243645558483</v>
       </c>
       <c r="K3">
-        <v>1.069499129451866</v>
+        <v>1.045587393404688</v>
       </c>
       <c r="L3">
-        <v>1.071129554312495</v>
+        <v>1.040129122485314</v>
       </c>
       <c r="M3">
-        <v>1.081347714112699</v>
+        <v>1.049934881650407</v>
       </c>
       <c r="N3">
-        <v>1.072327363921477</v>
+        <v>1.040719490738089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067321291634983</v>
+        <v>1.02489566974147</v>
       </c>
       <c r="D4">
-        <v>1.067851767729811</v>
+        <v>1.039765677522613</v>
       </c>
       <c r="E4">
-        <v>1.069519809211658</v>
+        <v>1.034203038498571</v>
       </c>
       <c r="F4">
-        <v>1.079835006252076</v>
+        <v>1.044527719889802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043617024183455</v>
+        <v>1.049705770477353</v>
       </c>
       <c r="J4">
-        <v>1.071707062227843</v>
+        <v>1.04368329108182</v>
       </c>
       <c r="K4">
-        <v>1.070257764311699</v>
+        <v>1.049406733767558</v>
       </c>
       <c r="L4">
-        <v>1.071921860106372</v>
+        <v>1.043905470426843</v>
       </c>
       <c r="M4">
-        <v>1.082212947302763</v>
+        <v>1.054116871064961</v>
       </c>
       <c r="N4">
-        <v>1.073229009182725</v>
+        <v>1.045165441067303</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067794200988787</v>
+        <v>1.027218553478027</v>
       </c>
       <c r="D5">
-        <v>1.068220970019979</v>
+        <v>1.041572109250715</v>
       </c>
       <c r="E5">
-        <v>1.069903341186758</v>
+        <v>1.035996091570433</v>
       </c>
       <c r="F5">
-        <v>1.080248639135252</v>
+        <v>1.046485853184367</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043722451393512</v>
+        <v>1.050354536593377</v>
       </c>
       <c r="J5">
-        <v>1.072084940515972</v>
+        <v>1.045513660082261</v>
       </c>
       <c r="K5">
-        <v>1.070576033987635</v>
+        <v>1.050980719326611</v>
       </c>
       <c r="L5">
-        <v>1.072254515096612</v>
+        <v>1.045464441260188</v>
       </c>
       <c r="M5">
-        <v>1.082576177382631</v>
+        <v>1.055842464319849</v>
       </c>
       <c r="N5">
-        <v>1.073607424101366</v>
+        <v>1.046998409401671</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067873572354592</v>
+        <v>1.027606057978375</v>
       </c>
       <c r="D6">
-        <v>1.068282929779945</v>
+        <v>1.041873490076692</v>
       </c>
       <c r="E6">
-        <v>1.069967720322726</v>
+        <v>1.036295401022537</v>
       </c>
       <c r="F6">
-        <v>1.080318067214764</v>
+        <v>1.046812650331456</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043740119955221</v>
+        <v>1.050462565047622</v>
       </c>
       <c r="J6">
-        <v>1.072148350947791</v>
+        <v>1.045818936964623</v>
       </c>
       <c r="K6">
-        <v>1.070629434380879</v>
+        <v>1.051243196254954</v>
       </c>
       <c r="L6">
-        <v>1.07231034431584</v>
+        <v>1.045724571855327</v>
       </c>
       <c r="M6">
-        <v>1.08263713542625</v>
+        <v>1.056130349624591</v>
       </c>
       <c r="N6">
-        <v>1.073670924583271</v>
+        <v>1.047304119812222</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067327612837435</v>
+        <v>1.024926878716778</v>
       </c>
       <c r="D7">
-        <v>1.067856703106252</v>
+        <v>1.039789945545876</v>
       </c>
       <c r="E7">
-        <v>1.069524935166446</v>
+        <v>1.034227115928686</v>
       </c>
       <c r="F7">
-        <v>1.079840534761261</v>
+        <v>1.044554018708162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043618435128738</v>
+        <v>1.049714500285695</v>
       </c>
       <c r="J7">
-        <v>1.071712113940551</v>
+        <v>1.043707887297176</v>
       </c>
       <c r="K7">
-        <v>1.070262019630093</v>
+        <v>1.049427887355846</v>
       </c>
       <c r="L7">
-        <v>1.071926306739113</v>
+        <v>1.043926411582047</v>
       </c>
       <c r="M7">
-        <v>1.082217802808187</v>
+        <v>1.054140053662651</v>
       </c>
       <c r="N7">
-        <v>1.073234068069445</v>
+        <v>1.045190072212106</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065040843572682</v>
+        <v>1.013343680582753</v>
       </c>
       <c r="D8">
-        <v>1.066070607724848</v>
+        <v>1.030787659945837</v>
       </c>
       <c r="E8">
-        <v>1.067671566849686</v>
+        <v>1.025315122417572</v>
       </c>
       <c r="F8">
-        <v>1.077841176797838</v>
+        <v>1.034811213277401</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043104995248059</v>
+        <v>1.046451327320143</v>
       </c>
       <c r="J8">
-        <v>1.069883291326747</v>
+        <v>1.034571766856679</v>
       </c>
       <c r="K8">
-        <v>1.068720658820417</v>
+        <v>1.041566136920566</v>
       </c>
       <c r="L8">
-        <v>1.070317419692332</v>
+        <v>1.036162764234573</v>
       </c>
       <c r="M8">
-        <v>1.08046067572365</v>
+        <v>1.045539419835666</v>
       </c>
       <c r="N8">
-        <v>1.07140264831776</v>
+        <v>1.036040977432656</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060992507369162</v>
+        <v>0.9912583504034583</v>
       </c>
       <c r="D9">
-        <v>1.062905576518285</v>
+        <v>1.013658319666434</v>
       </c>
       <c r="E9">
-        <v>1.064395354024431</v>
+        <v>1.008458287631381</v>
       </c>
       <c r="F9">
-        <v>1.074304790687384</v>
+        <v>1.016336456238314</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042181871641638</v>
+        <v>1.040123028904473</v>
       </c>
       <c r="J9">
-        <v>1.066639555643625</v>
+        <v>1.017123620776506</v>
       </c>
       <c r="K9">
-        <v>1.065982812553314</v>
+        <v>1.026533619790358</v>
       </c>
       <c r="L9">
-        <v>1.067468002295828</v>
+        <v>1.021415609571511</v>
       </c>
       <c r="M9">
-        <v>1.07734727592436</v>
+        <v>1.029169931765494</v>
       </c>
       <c r="N9">
-        <v>1.068154306157905</v>
+        <v>1.018568052983718</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058280193879214</v>
+        <v>0.975154358610437</v>
       </c>
       <c r="D10">
-        <v>1.060783086896929</v>
+        <v>1.001206499833685</v>
       </c>
       <c r="E10">
-        <v>1.062203743600619</v>
+        <v>0.996280183584185</v>
       </c>
       <c r="F10">
-        <v>1.071937685017994</v>
+        <v>1.002951855060473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041553893112529</v>
+        <v>1.035443051273576</v>
       </c>
       <c r="J10">
-        <v>1.064462230889153</v>
+        <v>1.004389637659419</v>
       </c>
       <c r="K10">
-        <v>1.0641424141411</v>
+        <v>1.015554004668558</v>
       </c>
       <c r="L10">
-        <v>1.065558259577978</v>
+        <v>1.010716926842858</v>
       </c>
       <c r="M10">
-        <v>1.075259612064182</v>
+        <v>1.017268016604026</v>
       </c>
       <c r="N10">
-        <v>1.06597388935254</v>
+        <v>1.005815986149997</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.057102367009304</v>
+        <v>0.9677837007784311</v>
       </c>
       <c r="D11">
-        <v>1.059860941042275</v>
+        <v>0.995520437966749</v>
       </c>
       <c r="E11">
-        <v>1.061252865000406</v>
+        <v>0.9907389627233915</v>
       </c>
       <c r="F11">
-        <v>1.070910311246571</v>
+        <v>0.9968511019109227</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041278945126352</v>
+        <v>1.033287431355974</v>
       </c>
       <c r="J11">
-        <v>1.063515764156348</v>
+        <v>0.9985609664158283</v>
       </c>
       <c r="K11">
-        <v>1.063341785026334</v>
+        <v>1.010527329609858</v>
       </c>
       <c r="L11">
-        <v>1.064728809053839</v>
+        <v>1.005837667769488</v>
       </c>
       <c r="M11">
-        <v>1.074352644697872</v>
+        <v>1.011832647164388</v>
       </c>
       <c r="N11">
-        <v>1.065026078528413</v>
+        <v>0.9999790375246823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056664346553844</v>
+        <v>0.9649789681300177</v>
       </c>
       <c r="D12">
-        <v>1.059517939158198</v>
+        <v>0.9933590884126536</v>
       </c>
       <c r="E12">
-        <v>1.060899371322379</v>
+        <v>0.9886358425188225</v>
       </c>
       <c r="F12">
-        <v>1.070528326458195</v>
+        <v>0.9945338669466601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041176358021405</v>
+        <v>1.032465307207597</v>
       </c>
       <c r="J12">
-        <v>1.063163640400915</v>
+        <v>0.9963431628839374</v>
       </c>
       <c r="K12">
-        <v>1.063043825836257</v>
+        <v>1.008614633420874</v>
       </c>
       <c r="L12">
-        <v>1.064420326315111</v>
+        <v>1.003984049171718</v>
       </c>
       <c r="M12">
-        <v>1.074015295832093</v>
+        <v>1.009766544091842</v>
       </c>
       <c r="N12">
-        <v>1.064673454716858</v>
+        <v>0.9977580844573908</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056758327354516</v>
+        <v>0.9655837517092771</v>
       </c>
       <c r="D13">
-        <v>1.059591535938607</v>
+        <v>0.9938250266589569</v>
       </c>
       <c r="E13">
-        <v>1.060975210429396</v>
+        <v>0.989089081314018</v>
       </c>
       <c r="F13">
-        <v>1.070610280533237</v>
+        <v>0.9950333309458399</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041198384148644</v>
+        <v>1.032642661693007</v>
       </c>
       <c r="J13">
-        <v>1.063239197858178</v>
+        <v>0.9968213757985869</v>
       </c>
       <c r="K13">
-        <v>1.063107765049659</v>
+        <v>1.009027058214626</v>
       </c>
       <c r="L13">
-        <v>1.064486514613916</v>
+        <v>1.004383597940718</v>
       </c>
       <c r="M13">
-        <v>1.074087679336138</v>
+        <v>1.010211951053222</v>
       </c>
       <c r="N13">
-        <v>1.064749119474378</v>
+        <v>0.9982369764892307</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.057066170864684</v>
+        <v>0.9675532725163767</v>
       </c>
       <c r="D14">
-        <v>1.059832598171117</v>
+        <v>0.9953428180845003</v>
       </c>
       <c r="E14">
-        <v>1.061223651179703</v>
+        <v>0.9905660626716269</v>
       </c>
       <c r="F14">
-        <v>1.070878743929957</v>
+        <v>0.9966606356927119</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041270474635207</v>
+        <v>1.033219924435484</v>
       </c>
       <c r="J14">
-        <v>1.063486669071723</v>
+        <v>0.9983787537462129</v>
       </c>
       <c r="K14">
-        <v>1.063317167312445</v>
+        <v>1.010370184674862</v>
       </c>
       <c r="L14">
-        <v>1.064703317741736</v>
+        <v>1.00568531515908</v>
       </c>
       <c r="M14">
-        <v>1.074324768798612</v>
+        <v>1.011662855444026</v>
       </c>
       <c r="N14">
-        <v>1.064996942125431</v>
+        <v>0.999796566092176</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057255773620772</v>
+        <v>0.9687576516693203</v>
       </c>
       <c r="D15">
-        <v>1.059981061180941</v>
+        <v>0.996271281470052</v>
       </c>
       <c r="E15">
-        <v>1.061376684329006</v>
+        <v>0.9914699842763155</v>
       </c>
       <c r="F15">
-        <v>1.071044103388688</v>
+        <v>0.9976563211839135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041314830994321</v>
+        <v>1.03357268887529</v>
       </c>
       <c r="J15">
-        <v>1.063639069163215</v>
+        <v>0.9993311325206353</v>
       </c>
       <c r="K15">
-        <v>1.063446111130969</v>
+        <v>1.011191539406761</v>
       </c>
       <c r="L15">
-        <v>1.064836845623619</v>
+        <v>1.006481743726855</v>
       </c>
       <c r="M15">
-        <v>1.074470786054958</v>
+        <v>1.012550397361304</v>
       </c>
       <c r="N15">
-        <v>1.065149558642533</v>
+        <v>1.000750297353697</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.058358289876718</v>
+        <v>0.9756345608936674</v>
       </c>
       <c r="D16">
-        <v>1.060844220556871</v>
+        <v>1.001577249546447</v>
       </c>
       <c r="E16">
-        <v>1.062266809462144</v>
+        <v>0.9966419136902119</v>
       </c>
       <c r="F16">
-        <v>1.072005816845873</v>
+        <v>1.003349880293509</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041572076336547</v>
+        <v>1.035583225981418</v>
       </c>
       <c r="J16">
-        <v>1.064524966376775</v>
+        <v>1.004769387933987</v>
       </c>
       <c r="K16">
-        <v>1.064195469909237</v>
+        <v>1.015881490342933</v>
       </c>
       <c r="L16">
-        <v>1.065613253599584</v>
+        <v>1.011035208383571</v>
       </c>
       <c r="M16">
-        <v>1.075319740476339</v>
+        <v>1.017622413129755</v>
       </c>
       <c r="N16">
-        <v>1.066036713931751</v>
+        <v>1.006196275713513</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05904895396504</v>
+        <v>0.9798371107234473</v>
       </c>
       <c r="D17">
-        <v>1.061384821561388</v>
+        <v>1.004823413123238</v>
       </c>
       <c r="E17">
-        <v>1.062824646543345</v>
+        <v>0.9998113527161221</v>
       </c>
       <c r="F17">
-        <v>1.072608423184706</v>
+        <v>1.006836128747321</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041732625685442</v>
+        <v>1.03680847388621</v>
       </c>
       <c r="J17">
-        <v>1.065079674829486</v>
+        <v>1.008092793975777</v>
       </c>
       <c r="K17">
-        <v>1.064664518470086</v>
+        <v>1.018747395704446</v>
       </c>
       <c r="L17">
-        <v>1.066099592721625</v>
+        <v>1.013822690411299</v>
       </c>
       <c r="M17">
-        <v>1.07585145766996</v>
+        <v>1.020725348233161</v>
       </c>
       <c r="N17">
-        <v>1.06659221013409</v>
+        <v>1.009524401373082</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059451481858995</v>
+        <v>0.9822505787780215</v>
       </c>
       <c r="D18">
-        <v>1.061699847222154</v>
+        <v>1.006688829040294</v>
       </c>
       <c r="E18">
-        <v>1.063149841143548</v>
+        <v>1.001634519594085</v>
       </c>
       <c r="F18">
-        <v>1.072959682359865</v>
+        <v>1.008840558100949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04182597941495</v>
+        <v>1.037510831417287</v>
       </c>
       <c r="J18">
-        <v>1.065402873554296</v>
+        <v>1.0100013245003</v>
       </c>
       <c r="K18">
-        <v>1.064937747907478</v>
+        <v>1.020393094858187</v>
       </c>
       <c r="L18">
-        <v>1.066383023664041</v>
+        <v>1.015425098621031</v>
       </c>
       <c r="M18">
-        <v>1.076161311062353</v>
+        <v>1.022508417107896</v>
       </c>
       <c r="N18">
-        <v>1.066915867838161</v>
+        <v>1.011435642229862</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059588678852857</v>
+        <v>0.9830672959162206</v>
       </c>
       <c r="D19">
-        <v>1.061807212658503</v>
+        <v>1.007320276324553</v>
       </c>
       <c r="E19">
-        <v>1.063260693474224</v>
+        <v>1.002251972635449</v>
       </c>
       <c r="F19">
-        <v>1.073079413845694</v>
+        <v>1.009519238116732</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041857761220637</v>
+        <v>1.037748285639401</v>
       </c>
       <c r="J19">
-        <v>1.065513016408773</v>
+        <v>1.010647155067163</v>
       </c>
       <c r="K19">
-        <v>1.065030851561845</v>
+        <v>1.020949965322016</v>
       </c>
       <c r="L19">
-        <v>1.066479625451228</v>
+        <v>1.015967611604844</v>
       </c>
       <c r="M19">
-        <v>1.076266914494938</v>
+        <v>1.023111982414619</v>
       </c>
       <c r="N19">
-        <v>1.067026167108124</v>
+        <v>1.012082389950208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05897488595224</v>
+        <v>0.9793901758631411</v>
       </c>
       <c r="D20">
-        <v>1.061326851068207</v>
+        <v>1.004478062352983</v>
       </c>
       <c r="E20">
-        <v>1.062764814835934</v>
+        <v>0.9994739717144056</v>
       </c>
       <c r="F20">
-        <v>1.072543793195529</v>
+        <v>1.006465126611225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041715430491112</v>
+        <v>1.036678303129973</v>
       </c>
       <c r="J20">
-        <v>1.065020196498351</v>
+        <v>1.007739359181029</v>
       </c>
       <c r="K20">
-        <v>1.064614231170318</v>
+        <v>1.018442624822951</v>
       </c>
       <c r="L20">
-        <v>1.066047438280973</v>
+        <v>1.0135260770061</v>
       </c>
       <c r="M20">
-        <v>1.075794439340529</v>
+        <v>1.020395239255643</v>
       </c>
       <c r="N20">
-        <v>1.066532647336903</v>
+        <v>1.009170464660386</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056975533191273</v>
+        <v>0.9669752099135797</v>
       </c>
       <c r="D21">
-        <v>1.05976162457713</v>
+        <v>0.9948972720933574</v>
       </c>
       <c r="E21">
-        <v>1.061150499796414</v>
+        <v>0.9901324076901047</v>
       </c>
       <c r="F21">
-        <v>1.070799698525772</v>
+        <v>0.9961828938582011</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041249258492403</v>
+        <v>1.033050544526846</v>
       </c>
       <c r="J21">
-        <v>1.063413810633013</v>
+        <v>0.9979216503630783</v>
       </c>
       <c r="K21">
-        <v>1.063255519380495</v>
+        <v>1.009975966403651</v>
       </c>
       <c r="L21">
-        <v>1.064639485407562</v>
+        <v>1.005303167563789</v>
       </c>
       <c r="M21">
-        <v>1.074254964669066</v>
+        <v>1.01123694514512</v>
       </c>
       <c r="N21">
-        <v>1.06492398021938</v>
+        <v>0.9993388135698071</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055715426282019</v>
+        <v>0.9587775683754799</v>
       </c>
       <c r="D22">
-        <v>1.058774745855024</v>
+        <v>0.9885850751319247</v>
       </c>
       <c r="E22">
-        <v>1.06013380386431</v>
+        <v>0.9839965542494492</v>
       </c>
       <c r="F22">
-        <v>1.069700956389086</v>
+        <v>0.9894188249241781</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040953498919124</v>
+        <v>1.03064436670425</v>
       </c>
       <c r="J22">
-        <v>1.062400543482374</v>
+        <v>0.9914400773141935</v>
       </c>
       <c r="K22">
-        <v>1.06239794095418</v>
+        <v>1.004386107005074</v>
       </c>
       <c r="L22">
-        <v>1.063752000666962</v>
+        <v>0.9998918515396916</v>
       </c>
       <c r="M22">
-        <v>1.073284364337086</v>
+        <v>1.005202852177659</v>
       </c>
       <c r="N22">
-        <v>1.063909274113165</v>
+        <v>0.9928480359437462</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05638372571939</v>
+        <v>0.9631631920148926</v>
       </c>
       <c r="D23">
-        <v>1.059298174146649</v>
+        <v>0.9919605535784766</v>
       </c>
       <c r="E23">
-        <v>1.060672939273791</v>
+        <v>0.9872759074322306</v>
       </c>
       <c r="F23">
-        <v>1.070283629101694</v>
+        <v>0.9930349634398828</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041110540058088</v>
+        <v>1.031932570748984</v>
       </c>
       <c r="J23">
-        <v>1.062938009562259</v>
+        <v>0.9949074404111993</v>
       </c>
       <c r="K23">
-        <v>1.062852876009774</v>
+        <v>1.007376425618587</v>
       </c>
       <c r="L23">
-        <v>1.064222689445336</v>
+        <v>1.002784950020065</v>
       </c>
       <c r="M23">
-        <v>1.073799154805199</v>
+        <v>1.008429629817924</v>
       </c>
       <c r="N23">
-        <v>1.064447503456531</v>
+        <v>0.9963203230940616</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.059008355102472</v>
+        <v>0.9795922427964521</v>
       </c>
       <c r="D24">
-        <v>1.061353046358861</v>
+        <v>1.004634197706628</v>
       </c>
       <c r="E24">
-        <v>1.062791850772582</v>
+        <v>0.9996264981722482</v>
       </c>
       <c r="F24">
-        <v>1.072572997419222</v>
+        <v>1.006632855860573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041723201161519</v>
+        <v>1.036737159580405</v>
       </c>
       <c r="J24">
-        <v>1.065047073287721</v>
+        <v>1.007899153321044</v>
       </c>
       <c r="K24">
-        <v>1.064636954944716</v>
+        <v>1.018580417471366</v>
       </c>
       <c r="L24">
-        <v>1.066071005376934</v>
+        <v>1.013660176097507</v>
       </c>
       <c r="M24">
-        <v>1.075820204359991</v>
+        <v>1.020544483821612</v>
       </c>
       <c r="N24">
-        <v>1.066559562294397</v>
+        <v>1.009330485726409</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.062041405181099</v>
+        <v>0.9971903655296916</v>
       </c>
       <c r="D25">
-        <v>1.06372596880147</v>
+        <v>1.018253814470565</v>
       </c>
       <c r="E25">
-        <v>1.065243611834851</v>
+        <v>1.01296842522864</v>
       </c>
       <c r="F25">
-        <v>1.075220664118294</v>
+        <v>1.021285396427753</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042422720175164</v>
+        <v>1.041834404038698</v>
       </c>
       <c r="J25">
-        <v>1.067480706663572</v>
+        <v>1.021812656461597</v>
       </c>
       <c r="K25">
-        <v>1.066693245680634</v>
+        <v>1.03057522118653</v>
       </c>
       <c r="L25">
-        <v>1.068206395119626</v>
+        <v>1.025368704309086</v>
       </c>
       <c r="M25">
-        <v>1.07815424972695</v>
+        <v>1.033562031576127</v>
       </c>
       <c r="N25">
-        <v>1.068996651708782</v>
+        <v>1.023263747637322</v>
       </c>
     </row>
   </sheetData>
